--- a/src/main/java/com/adact/excel/testdata.xlsx
+++ b/src/main/java/com/adact/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16965" windowHeight="3675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="2880"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
     <t>iamaniket007</t>
   </si>
   <si>
-    <t>aniket123</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>SN1QXC</t>
   </si>
 </sst>
 </file>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,15 +394,15 @@
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -410,16 +410,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
